--- a/tests/integration/data/Renderer012-ForEach-special/template.xlsx
+++ b/tests/integration/data/Renderer012-ForEach-special/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siemienik/WebstormProjects/xlsx-import/packages/xlsx-renderer/tests/integration/data/Renderer012-ForEach-special/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Documents/GIT/MillTechFX.xlsx-renderer/tests/integration/data/Renderer012-ForEach-special/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD59F583-5582-2E45-9B31-315B04CFFAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F46D9-97AF-D842-B717-AB39291E20FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27800" windowHeight="16440" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27800" windowHeight="16100" activeTab="2" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
   </bookViews>
   <sheets>
     <sheet name="Most common for each" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="79">
   <si>
     <t>FOR EACH special item</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t xml:space="preserve"> item.__last</t>
+  </si>
+  <si>
+    <t>#! END_ROW true</t>
   </si>
 </sst>
 </file>
@@ -676,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CB5A86-9F62-4CA9-8E69-0560B4CC82E1}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -689,7 +692,7 @@
     <col min="18" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -800,8 +803,11 @@
       <c r="R3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -856,13 +862,16 @@
       <c r="R4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -870,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -926,22 +935,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -949,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -957,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -965,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -973,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -981,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1051,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1F4E2-D67A-408E-882F-920444C906FB}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1062,7 +1071,7 @@
     <col min="1" max="17" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1117,8 +1126,11 @@
       <c r="R1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1173,13 +1185,16 @@
       <c r="R2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1190,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1301,8 +1316,11 @@
       <c r="R6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1357,33 +1375,36 @@
       <c r="R7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1398,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209109B6-BA88-4AF5-9D3F-FCC154609ECE}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1409,7 +1430,7 @@
     <col min="1" max="3" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1419,8 +1440,11 @@
       <c r="C1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1431,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1442,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1453,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1464,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1475,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1486,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1497,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1508,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1519,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1530,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1541,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1552,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1563,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>68</v>
       </c>
